--- a/team_specific_matrix/Northwestern_A.xlsx
+++ b/team_specific_matrix/Northwestern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2070175438596491</v>
+        <v>0.2061328790459966</v>
       </c>
       <c r="C2">
-        <v>0.5228070175438596</v>
+        <v>0.5264054514480409</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02280701754385965</v>
+        <v>0.02214650766609881</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1368421052631579</v>
+        <v>0.1328790459965928</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1105263157894737</v>
+        <v>0.1124361158432709</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006349206349206349</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.01904761904761905</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0253968253968254</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7428571428571429</v>
+        <v>0.7361963190184049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2063492063492063</v>
+        <v>0.2116564417177914</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06944444444444445</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3055555555555556</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05145413870246085</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008948545861297539</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0738255033557047</v>
+        <v>0.07268722466960352</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.331096196868009</v>
+        <v>0.3325991189427313</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02460850111856823</v>
+        <v>0.02422907488986784</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1431767337807606</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="R6">
-        <v>0.07606263982102908</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="S6">
-        <v>0.29082774049217</v>
+        <v>0.2907488986784141</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1142857142857143</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0119047619047619</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E7">
-        <v>0.004761904761904762</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="F7">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1285714285714286</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01904761904761905</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1642857142857143</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R7">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3904761904761905</v>
+        <v>0.3977272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09753086419753086</v>
+        <v>0.09834123222748815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01604938271604938</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07160493827160494</v>
+        <v>0.06990521327014218</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1061728395061728</v>
+        <v>0.1054502369668247</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02592592592592593</v>
+        <v>0.02488151658767773</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1604938271604938</v>
+        <v>0.1670616113744076</v>
       </c>
       <c r="R8">
-        <v>0.1037037037037037</v>
+        <v>0.1007109004739336</v>
       </c>
       <c r="S8">
-        <v>0.4185185185185185</v>
+        <v>0.4170616113744076</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1296829971181556</v>
+        <v>0.1253481894150418</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02017291066282421</v>
+        <v>0.01949860724233983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08645533141210375</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1469740634005764</v>
+        <v>0.1420612813370473</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01152737752161383</v>
+        <v>0.01114206128133705</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.175792507204611</v>
+        <v>0.1727019498607242</v>
       </c>
       <c r="R9">
-        <v>0.07780979827089338</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="S9">
-        <v>0.3515850144092219</v>
+        <v>0.3593314763231198</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1039965620971208</v>
+        <v>0.1030502885408079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01933820369574559</v>
+        <v>0.02019785655399835</v>
       </c>
       <c r="E10">
-        <v>0.0008594757198109154</v>
+        <v>0.0008244023083264633</v>
       </c>
       <c r="F10">
-        <v>0.06102277610657499</v>
+        <v>0.05935696619950536</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1087236785560808</v>
+        <v>0.1084089035449299</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01547056295659648</v>
+        <v>0.01483924154987634</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2294800171895144</v>
+        <v>0.2328936521022259</v>
       </c>
       <c r="R10">
-        <v>0.08637730984099699</v>
+        <v>0.08615004122011542</v>
       </c>
       <c r="S10">
-        <v>0.3747314138375591</v>
+        <v>0.3742786479802143</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1589895988112927</v>
+        <v>0.1597717546362339</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09063893016344725</v>
+        <v>0.08701854493580599</v>
       </c>
       <c r="K11">
-        <v>0.2065378900445765</v>
+        <v>0.2082738944365193</v>
       </c>
       <c r="L11">
-        <v>0.5304606240713224</v>
+        <v>0.5306704707560628</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01337295690936107</v>
+        <v>0.01426533523537803</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7349726775956285</v>
+        <v>0.741514360313316</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2076502732240437</v>
+        <v>0.2010443864229765</v>
       </c>
       <c r="K12">
-        <v>0.01092896174863388</v>
+        <v>0.01044386422976501</v>
       </c>
       <c r="L12">
-        <v>0.01912568306010929</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0273224043715847</v>
+        <v>0.02610966057441253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6304347826086957</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3695652173913043</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03266331658291458</v>
+        <v>0.03178484107579462</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1381909547738693</v>
+        <v>0.136919315403423</v>
       </c>
       <c r="I15">
-        <v>0.06281407035175879</v>
+        <v>0.06112469437652811</v>
       </c>
       <c r="J15">
-        <v>0.3492462311557789</v>
+        <v>0.352078239608802</v>
       </c>
       <c r="K15">
-        <v>0.0678391959798995</v>
+        <v>0.07090464547677261</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007537688442211055</v>
+        <v>0.007334963325183374</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04773869346733668</v>
+        <v>0.04645476772616137</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2939698492462312</v>
+        <v>0.293398533007335</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01734104046242774</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1647398843930636</v>
+        <v>0.1629213483146068</v>
       </c>
       <c r="I16">
-        <v>0.0838150289017341</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="J16">
-        <v>0.4161849710982659</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="K16">
-        <v>0.1445086705202312</v>
+        <v>0.1432584269662921</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01734104046242774</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N16">
-        <v>0.002890173410404624</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="O16">
-        <v>0.04046242774566474</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1127167630057803</v>
+        <v>0.1123595505617977</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02816901408450704</v>
+        <v>0.02669632925472748</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1701877934272301</v>
+        <v>0.167964404894327</v>
       </c>
       <c r="I17">
-        <v>0.09976525821596244</v>
+        <v>0.1012235817575083</v>
       </c>
       <c r="J17">
-        <v>0.3838028169014084</v>
+        <v>0.3904338153503893</v>
       </c>
       <c r="K17">
-        <v>0.1091549295774648</v>
+        <v>0.1112347052280311</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02347417840375587</v>
+        <v>0.02224694104560623</v>
       </c>
       <c r="N17">
-        <v>0.001173708920187793</v>
+        <v>0.001112347052280311</v>
       </c>
       <c r="O17">
-        <v>0.04460093896713615</v>
+        <v>0.04338153503893215</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1396713615023474</v>
+        <v>0.135706340378198</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03645833333333334</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1458333333333333</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="I18">
-        <v>0.07552083333333333</v>
+        <v>0.07323232323232323</v>
       </c>
       <c r="J18">
-        <v>0.375</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="K18">
-        <v>0.1484375</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01302083333333333</v>
+        <v>0.01262626262626263</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08072916666666667</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1237373737373737</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02291047942299533</v>
+        <v>0.02279202279202279</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2146796775562155</v>
+        <v>0.2157102157102157</v>
       </c>
       <c r="I19">
-        <v>0.07721680101824353</v>
+        <v>0.07651607651607652</v>
       </c>
       <c r="J19">
-        <v>0.3508697496817989</v>
+        <v>0.3508343508343508</v>
       </c>
       <c r="K19">
-        <v>0.1251591005515486</v>
+        <v>0.1245421245421245</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02672889266016122</v>
+        <v>0.02604802604802605</v>
       </c>
       <c r="N19">
-        <v>0.0004242681374628765</v>
+        <v>0.000814000814000814</v>
       </c>
       <c r="O19">
-        <v>0.06661009758167162</v>
+        <v>0.06552706552706553</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1154009333899024</v>
+        <v>0.1172161172161172</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northwestern_A.xlsx
+++ b/team_specific_matrix/Northwestern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2061328790459966</v>
+        <v>0.207667731629393</v>
       </c>
       <c r="C2">
-        <v>0.5264054514480409</v>
+        <v>0.5239616613418531</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02214650766609881</v>
+        <v>0.0207667731629393</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1328790459965928</v>
+        <v>0.1325878594249201</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1124361158432709</v>
+        <v>0.1150159744408946</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="C3">
-        <v>0.01840490797546012</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02760736196319018</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7361963190184049</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2116564417177914</v>
+        <v>0.2115942028985507</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06578947368421052</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6447368421052632</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2894736842105263</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05286343612334802</v>
+        <v>0.05781584582441113</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00881057268722467</v>
+        <v>0.008565310492505354</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07268722466960352</v>
+        <v>0.07066381156316917</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3325991189427313</v>
+        <v>0.3319057815845824</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02422907488986784</v>
+        <v>0.02355460385438972</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1431718061674009</v>
+        <v>0.1413276231263383</v>
       </c>
       <c r="R6">
-        <v>0.07488986784140969</v>
+        <v>0.07494646680942184</v>
       </c>
       <c r="S6">
-        <v>0.2907488986784141</v>
+        <v>0.291220556745182</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1113636363636364</v>
+        <v>0.1108695652173913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01363636363636364</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E7">
-        <v>0.004545454545454545</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="F7">
-        <v>0.06818181818181818</v>
+        <v>0.06739130434782609</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1318181818181818</v>
+        <v>0.1326086956521739</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01818181818181818</v>
+        <v>0.01956521739130435</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1636363636363636</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S7">
-        <v>0.3977272727272727</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09834123222748815</v>
+        <v>0.1001150747986191</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01658767772511848</v>
+        <v>0.01726121979286536</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06990521327014218</v>
+        <v>0.06904487917146145</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1054502369668247</v>
+        <v>0.1058688147295742</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02488151658767773</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1670616113744076</v>
+        <v>0.1657077100115075</v>
       </c>
       <c r="R8">
-        <v>0.1007109004739336</v>
+        <v>0.09896432681242807</v>
       </c>
       <c r="S8">
-        <v>0.4170616113744076</v>
+        <v>0.4177215189873418</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1253481894150418</v>
+        <v>0.1273209549071618</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01949860724233983</v>
+        <v>0.02122015915119363</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08635097493036212</v>
+        <v>0.08488063660477453</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1420612813370473</v>
+        <v>0.1352785145888594</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01114206128133705</v>
+        <v>0.01061007957559682</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1727019498607242</v>
+        <v>0.1750663129973475</v>
       </c>
       <c r="R9">
-        <v>0.08356545961002786</v>
+        <v>0.07957559681697612</v>
       </c>
       <c r="S9">
-        <v>0.3593314763231198</v>
+        <v>0.3660477453580902</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1030502885408079</v>
+        <v>0.1053873377900118</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02019785655399835</v>
+        <v>0.02084152575697994</v>
       </c>
       <c r="E10">
-        <v>0.0008244023083264633</v>
+        <v>0.0007864726700747149</v>
       </c>
       <c r="F10">
-        <v>0.05935696619950536</v>
+        <v>0.05859221392056626</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1084089035449299</v>
+        <v>0.1128588281557216</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01483924154987634</v>
+        <v>0.01494298073141958</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2328936521022259</v>
+        <v>0.2308297286669288</v>
       </c>
       <c r="R10">
-        <v>0.08615004122011542</v>
+        <v>0.08415257569799449</v>
       </c>
       <c r="S10">
-        <v>0.3742786479802143</v>
+        <v>0.3716083366103028</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1597717546362339</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08701854493580599</v>
+        <v>0.08401084010840108</v>
       </c>
       <c r="K11">
-        <v>0.2082738944365193</v>
+        <v>0.2113821138211382</v>
       </c>
       <c r="L11">
-        <v>0.5306704707560628</v>
+        <v>0.5271002710027101</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01426533523537803</v>
+        <v>0.01490514905149051</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.741514360313316</v>
+        <v>0.7356608478802993</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2010443864229765</v>
+        <v>0.2019950124688279</v>
       </c>
       <c r="K12">
-        <v>0.01044386422976501</v>
+        <v>0.009975062344139651</v>
       </c>
       <c r="L12">
-        <v>0.02088772845953003</v>
+        <v>0.02493765586034913</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02610966057441253</v>
+        <v>0.02743142144638404</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6236559139784946</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3763440860215054</v>
+        <v>0.375</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03178484107579462</v>
+        <v>0.03087885985748218</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.136919315403423</v>
+        <v>0.1353919239904988</v>
       </c>
       <c r="I15">
-        <v>0.06112469437652811</v>
+        <v>0.06175771971496437</v>
       </c>
       <c r="J15">
-        <v>0.352078239608802</v>
+        <v>0.3515439429928741</v>
       </c>
       <c r="K15">
-        <v>0.07090464547677261</v>
+        <v>0.06888361045130641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007334963325183374</v>
+        <v>0.007125890736342043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04645476772616137</v>
+        <v>0.04513064133016627</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.293398533007335</v>
+        <v>0.2992874109263658</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01685393258426966</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1629213483146068</v>
+        <v>0.1613756613756614</v>
       </c>
       <c r="I16">
-        <v>0.08426966292134831</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J16">
-        <v>0.4157303370786517</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="K16">
-        <v>0.1432584269662921</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01685393258426966</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
-        <v>0.002808988764044944</v>
+        <v>0.002645502645502645</v>
       </c>
       <c r="O16">
-        <v>0.0449438202247191</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1123595505617977</v>
+        <v>0.1137566137566138</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02669632925472748</v>
+        <v>0.02572347266881029</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.167964404894327</v>
+        <v>0.1661307609860664</v>
       </c>
       <c r="I17">
-        <v>0.1012235817575083</v>
+        <v>0.1028938906752412</v>
       </c>
       <c r="J17">
-        <v>0.3904338153503893</v>
+        <v>0.3922829581993569</v>
       </c>
       <c r="K17">
-        <v>0.1112347052280311</v>
+        <v>0.1146838156484459</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02224694104560623</v>
+        <v>0.02143622722400857</v>
       </c>
       <c r="N17">
-        <v>0.001112347052280311</v>
+        <v>0.001071811361200429</v>
       </c>
       <c r="O17">
-        <v>0.04338153503893215</v>
+        <v>0.04180064308681672</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.135706340378198</v>
+        <v>0.1339764201500536</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03535353535353535</v>
+        <v>0.03473945409429281</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1464646464646465</v>
+        <v>0.1464019851116625</v>
       </c>
       <c r="I18">
-        <v>0.07323232323232323</v>
+        <v>0.07196029776674938</v>
       </c>
       <c r="J18">
-        <v>0.3838383838383838</v>
+        <v>0.3920595533498759</v>
       </c>
       <c r="K18">
-        <v>0.143939393939394</v>
+        <v>0.141439205955335</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01262626262626263</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08080808080808081</v>
+        <v>0.07940446650124069</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1237373737373737</v>
+        <v>0.1215880893300248</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02279202279202279</v>
+        <v>0.02262973078423722</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2157102157102157</v>
+        <v>0.2130316035895435</v>
       </c>
       <c r="I19">
-        <v>0.07651607651607652</v>
+        <v>0.07647288333983612</v>
       </c>
       <c r="J19">
-        <v>0.3508343508343508</v>
+        <v>0.351931330472103</v>
       </c>
       <c r="K19">
-        <v>0.1245421245421245</v>
+        <v>0.1271946937182989</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02604802604802605</v>
+        <v>0.02614124073351541</v>
       </c>
       <c r="N19">
-        <v>0.000814000814000814</v>
+        <v>0.0007803355442840422</v>
       </c>
       <c r="O19">
-        <v>0.06552706552706553</v>
+        <v>0.0647678501755755</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1172161172161172</v>
+        <v>0.1170503316426063</v>
       </c>
     </row>
   </sheetData>
